--- a/biology/Botanique/Rosa_palustris/Rosa_palustris.xlsx
+++ b/biology/Botanique/Rosa_palustris/Rosa_palustris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Rosier des marais, ou rosier palustre (Rosa palustris), est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosier de la section des Carolinæ, originaire de l'est de l'Amérique de Nord, du Canada (Québec, Ontario) jusqu'au sud des États-Unis (Floride).
 Synonyme : Rosa hudsoniana Thory et Rosa pensylvania Michx.
@@ -512,7 +524,9 @@
           <t>Description[1]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbrisseau drageonnant, haut de 1 à 1,8 mètre, au port dressé, qui pousse dans les marais et au bord des lacs. Il présente un feuillage vert vif à vert foncé, formé de feuilles imparipennées à 5 à 9 folioles.
 Les fleurs simples, rose foncé brillant, de 4,5 à 5 cm de diamètre, sont solitaires ou groupées en corymbes. La floraison longue et tardive est suivie de fruits rouges.
@@ -544,7 +558,9 @@
           <t>Hybrides</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rosa × mariæ-græbneræ hybride spontané de Rosa virginiana et de Rosa palustris aux fleurs rose vif durant tout l'été qui se rencontre près de ses parents en Amérique du Nord.</t>
         </is>
